--- a/hasil_cluster_sumut.xlsx
+++ b/hasil_cluster_sumut.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Dokumen\Dashboard_SEFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Dokumen\Dashboard_SEFI\SEFI_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41130E7-AC88-4D6B-A57D-CF651CF22B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6E33B4-258E-43B6-98C6-E9C2629EF1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFEFF1DF-A46C-48E3-932F-1D875B88923D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BA7CAAE-7EFA-4C68-A577-E921A3535681}"/>
   </bookViews>
   <sheets>
-    <sheet name="hasil_cluster_sumut" sheetId="1" r:id="rId1"/>
+    <sheet name="hasil_cluster_sumut (1)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -118,6 +118,12 @@
     <t>Padang Lawas</t>
   </si>
   <si>
+    <t>Labuhanbatu Selatan</t>
+  </si>
+  <si>
+    <t>Labuanbatu Utara</t>
+  </si>
+  <si>
     <t>Nias Utara</t>
   </si>
   <si>
@@ -125,6 +131,12 @@
   </si>
   <si>
     <t>Sibolga</t>
+  </si>
+  <si>
+    <t>Tanjungbalai</t>
+  </si>
+  <si>
+    <t>Pematangsiantar</t>
   </si>
   <si>
     <t>Tebing Tinggi</t>
@@ -141,23 +153,14 @@
   <si>
     <t>Gunungsitoli</t>
   </si>
-  <si>
-    <t>Labuhan Batu Selatan</t>
-  </si>
-  <si>
-    <t>Tanjung Balai</t>
-  </si>
-  <si>
-    <t>Labuhan Batu Utara</t>
-  </si>
-  <si>
-    <t>Pematang Siantar</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="&quot;Rp&quot;#,##0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -635,8 +638,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -991,18 +997,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3EB33F-6698-404F-BBB8-E99215E49F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D50302-56B7-4E46-8397-2958D8F81687}">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1030,10 +1035,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1065,14 +1070,14 @@
       <c r="H2">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>14873</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>1429029655615</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1100,14 +1105,14 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>33000</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>3372315026110</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1135,14 +1140,14 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>35561</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>1941680752536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1170,14 +1175,14 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>23827</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1741386529892</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1205,14 +1210,14 @@
       <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>35071</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>1928012820364</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1240,14 +1245,14 @@
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>23690</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>1469335079742</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1275,10 +1280,10 @@
       <c r="H8">
         <v>44</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>99072</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>6272063744613</v>
       </c>
       <c r="K8">
@@ -1310,10 +1315,10 @@
       <c r="H9">
         <v>26</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>110678</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>6112307968123</v>
       </c>
       <c r="K9">
@@ -1345,14 +1350,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>103211</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>5411127571278</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1380,14 +1385,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>26733</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <v>1857338958855</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1415,14 +1420,14 @@
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <v>53167</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <v>2978725478119</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1450,14 +1455,14 @@
       <c r="H13">
         <v>26</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <v>278052</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <v>36888412570421</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -1485,14 +1490,14 @@
       <c r="H14">
         <v>9</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <v>104672</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <v>4931779406229</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -1520,14 +1525,14 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <v>5353</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <v>555881763424</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -1555,14 +1560,14 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <v>7348</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <v>644851597633</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -1590,14 +1595,14 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>3762</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <v>290014310108</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -1625,14 +1630,14 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <v>4458</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <v>486752968979</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -1660,14 +1665,14 @@
       <c r="H19">
         <v>5</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>54771</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <v>2642706786360</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -1695,14 +1700,14 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>28067</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <v>2842710482080</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -1730,14 +1735,14 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>7622</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <v>915797521756</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -1765,14 +1770,14 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>10517</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <v>1117863457830</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -1780,7 +1785,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>8.94</v>
@@ -1800,14 +1805,14 @@
       <c r="H23">
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>11097</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <v>787707047898</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -1815,7 +1820,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>9.57</v>
@@ -1835,14 +1840,14 @@
       <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>13022</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <v>647357794787</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -1850,7 +1855,7 @@
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>24.99</v>
@@ -1870,10 +1875,10 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>5745</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <v>485143068288</v>
       </c>
       <c r="K25">
@@ -1885,7 +1890,7 @@
         <v>2019</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>25.51</v>
@@ -1905,10 +1910,10 @@
       <c r="H26">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>1684</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="2">
         <v>197680905383</v>
       </c>
       <c r="K26">
@@ -1920,7 +1925,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>12.36</v>
@@ -1940,14 +1945,14 @@
       <c r="H27">
         <v>5</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>13458</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="2">
         <v>1423844284969</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -1955,7 +1960,7 @@
         <v>2019</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>14.04</v>
@@ -1975,14 +1980,14 @@
       <c r="H28">
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>24034</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="2">
         <v>1509835528078</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -1990,7 +1995,7 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>8.6300000000000008</v>
@@ -2010,14 +2015,14 @@
       <c r="H29">
         <v>54</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>58530</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="2">
         <v>4729749779379</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -2025,7 +2030,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>9.94</v>
@@ -2045,14 +2050,14 @@
       <c r="H30">
         <v>17</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>46747</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="2">
         <v>2782832889377</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -2060,7 +2065,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>8.08</v>
@@ -2080,14 +2085,14 @@
       <c r="H31">
         <v>346</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>538813</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="2">
         <v>121231568476312</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -2095,7 +2100,7 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>5.66</v>
@@ -2115,14 +2120,14 @@
       <c r="H32">
         <v>25</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>52751</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="2">
         <v>3577192849777</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -2130,7 +2135,7 @@
         <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>7.26</v>
@@ -2150,14 +2155,14 @@
       <c r="H33">
         <v>22</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <v>22504</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="2">
         <v>2603270193422</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -2165,7 +2170,7 @@
         <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>16.23</v>
@@ -2185,10 +2190,10 @@
       <c r="H34">
         <v>4</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <v>1962</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="2">
         <v>218052085950</v>
       </c>
       <c r="K34">
@@ -2220,14 +2225,14 @@
       <c r="H35">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <v>19973</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="2">
         <v>1666558793577</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -2255,14 +2260,14 @@
       <c r="H36">
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <v>38675</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="2">
         <v>3644578398695</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -2290,14 +2295,14 @@
       <c r="H37">
         <v>4</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <v>46463</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>2294424830983</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -2325,14 +2330,14 @@
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <v>29147</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>2112124923936</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -2360,14 +2365,14 @@
       <c r="H39">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <v>48269</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>2607435691953</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
@@ -2395,14 +2400,14 @@
       <c r="H40">
         <v>4</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <v>27048</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>1665888555772</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2430,10 +2435,10 @@
       <c r="H41">
         <v>42</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <v>95200</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>6032356028124</v>
       </c>
       <c r="K41">
@@ -2465,10 +2470,10 @@
       <c r="H42">
         <v>27</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <v>124901</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>6496359336907</v>
       </c>
       <c r="K42">
@@ -2500,14 +2505,14 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <v>102395</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="2">
         <v>5565313882570</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -2535,14 +2540,14 @@
       <c r="H44">
         <v>1</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <v>28985</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="2">
         <v>1946386912544</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -2570,14 +2575,14 @@
       <c r="H45">
         <v>6</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <v>49034</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="2">
         <v>3404792094292</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -2605,14 +2610,14 @@
       <c r="H46">
         <v>35</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <v>291974</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>35045335320672</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -2640,14 +2645,14 @@
       <c r="H47">
         <v>13</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <v>109881</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="2">
         <v>5146126066561</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -2675,14 +2680,14 @@
       <c r="H48">
         <v>0</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <v>6324</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="2">
         <v>605613130824</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2710,14 +2715,14 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <v>6769</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="2">
         <v>677340401467</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
@@ -2745,14 +2750,14 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <v>4024</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>299724513819</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -2780,14 +2785,14 @@
       <c r="H51">
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <v>4713</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="2">
         <v>516568429044</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -2815,14 +2820,14 @@
       <c r="H52">
         <v>6</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <v>64059</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="2">
         <v>3128470625594</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -2850,14 +2855,14 @@
       <c r="H53">
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <v>31233</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="2">
         <v>2932670511742</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -2885,14 +2890,14 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <v>10042</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="2">
         <v>986441940570</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -2920,14 +2925,14 @@
       <c r="H55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <v>10538</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <v>1247181292965</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -2935,7 +2940,7 @@
         <v>2020</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C56">
         <v>8.34</v>
@@ -2955,14 +2960,14 @@
       <c r="H56">
         <v>4</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <v>12549</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="2">
         <v>781642321745</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -2970,7 +2975,7 @@
         <v>2020</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C57">
         <v>9.5299999999999994</v>
@@ -2990,14 +2995,14 @@
       <c r="H57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <v>14827</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="2">
         <v>793580965334</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3005,7 +3010,7 @@
         <v>2020</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C58">
         <v>25.07</v>
@@ -3025,10 +3030,10 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>8009</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="2">
         <v>618953738513</v>
       </c>
       <c r="K58">
@@ -3040,7 +3045,7 @@
         <v>2020</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>25.69</v>
@@ -3060,10 +3065,10 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <v>1767</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="2">
         <v>204302872064</v>
       </c>
       <c r="K59">
@@ -3075,7 +3080,7 @@
         <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C60">
         <v>11.95</v>
@@ -3095,14 +3100,14 @@
       <c r="H60">
         <v>5</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <v>13844</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="2">
         <v>1477335212197</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3110,7 +3115,7 @@
         <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>13.33</v>
@@ -3130,14 +3135,14 @@
       <c r="H61">
         <v>2</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <v>24222</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="2">
         <v>1488827888425</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -3145,7 +3150,7 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C62">
         <v>8.27</v>
@@ -3165,14 +3170,14 @@
       <c r="H62">
         <v>56</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <v>56222</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="2">
         <v>4561372710113</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -3180,7 +3185,7 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C63">
         <v>9.85</v>
@@ -3200,14 +3205,14 @@
       <c r="H63">
         <v>17</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <v>46434</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="2">
         <v>5120072927229</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -3215,7 +3220,7 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C64">
         <v>8.01</v>
@@ -3235,14 +3240,14 @@
       <c r="H64">
         <v>368</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <v>553768</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="2">
         <v>114469102452856</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -3250,7 +3255,7 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C65">
         <v>5.71</v>
@@ -3270,14 +3275,14 @@
       <c r="H65">
         <v>26</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <v>51172</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="2">
         <v>3686426686420</v>
       </c>
       <c r="K65">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -3285,7 +3290,7 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>7.4</v>
@@ -3305,14 +3310,14 @@
       <c r="H66">
         <v>22</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <v>21628</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="2">
         <v>2337214157122</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
@@ -3320,7 +3325,7 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C67">
         <v>16.41</v>
@@ -3340,14 +3345,14 @@
       <c r="H67">
         <v>4</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <v>1738</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="2">
         <v>167753482213</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -3375,10 +3380,10 @@
       <c r="H68">
         <v>6</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <v>22971</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="2">
         <v>1663075069799</v>
       </c>
       <c r="K68">
@@ -3410,14 +3415,14 @@
       <c r="H69">
         <v>2</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <v>38810</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="2">
         <v>4428126489788</v>
       </c>
       <c r="K69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
@@ -3445,14 +3450,14 @@
       <c r="H70">
         <v>4</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <v>51262</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="2">
         <v>3999912882502</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -3480,14 +3485,14 @@
       <c r="H71">
         <v>2</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <v>31981</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="2">
         <v>2125396651985</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -3515,14 +3520,14 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <v>46754</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="2">
         <v>2561123861765</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -3550,14 +3555,14 @@
       <c r="H73">
         <v>4</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <v>31780</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="2">
         <v>2070038908176</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
@@ -3585,10 +3590,10 @@
       <c r="H74">
         <v>42</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <v>92072</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="2">
         <v>6578294548428</v>
       </c>
       <c r="K74">
@@ -3620,10 +3625,10 @@
       <c r="H75">
         <v>27</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <v>120834</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="2">
         <v>11542380855984</v>
       </c>
       <c r="K75">
@@ -3655,14 +3660,14 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <v>108808</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="2">
         <v>6055422825291</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -3690,14 +3695,14 @@
       <c r="H77">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <v>32946</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="2">
         <v>2150136685685</v>
       </c>
       <c r="K77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -3725,14 +3730,14 @@
       <c r="H78">
         <v>6</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <v>49699</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="2">
         <v>4989281052394</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -3760,14 +3765,14 @@
       <c r="H79">
         <v>35</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <v>293212</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="2">
         <v>38270602680817</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -3795,14 +3800,14 @@
       <c r="H80">
         <v>13</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <v>116564</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="2">
         <v>5480204780101</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -3830,10 +3835,10 @@
       <c r="H81">
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <v>7444</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="2">
         <v>668209021501</v>
       </c>
       <c r="K81">
@@ -3865,14 +3870,14 @@
       <c r="H82">
         <v>1</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <v>9347</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="2">
         <v>817560278485</v>
       </c>
       <c r="K82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -3900,14 +3905,14 @@
       <c r="H83">
         <v>0</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <v>4783</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="2">
         <v>329279071598</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -3935,14 +3940,14 @@
       <c r="H84">
         <v>0</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <v>4639</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="2">
         <v>506062107433</v>
       </c>
       <c r="K84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -3970,14 +3975,14 @@
       <c r="H85">
         <v>6</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <v>71082</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="2">
         <v>3466635251037</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -4005,14 +4010,14 @@
       <c r="H86">
         <v>0</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <v>44806</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="2">
         <v>5306828938039</v>
       </c>
       <c r="K86">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -4040,14 +4045,14 @@
       <c r="H87">
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <v>9336</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="2">
         <v>857348355506</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -4075,14 +4080,14 @@
       <c r="H88">
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <v>12370</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="2">
         <v>1169590957731</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -4090,7 +4095,7 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C89">
         <v>8.5299999999999994</v>
@@ -4110,14 +4115,14 @@
       <c r="H89">
         <v>4</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <v>24323</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="2">
         <v>1335003955866</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -4125,7 +4130,7 @@
         <v>2021</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C90">
         <v>10.02</v>
@@ -4145,14 +4150,14 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <v>23841</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="2">
         <v>1261726832047</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
@@ -4160,7 +4165,7 @@
         <v>2021</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C91">
         <v>25.66</v>
@@ -4180,14 +4185,14 @@
       <c r="H91">
         <v>0</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <v>2235</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="2">
         <v>249616266837</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -4195,7 +4200,7 @@
         <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>26.42</v>
@@ -4215,14 +4220,14 @@
       <c r="H92">
         <v>0</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <v>2192</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="2">
         <v>223177990694</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -4230,7 +4235,7 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C93">
         <v>12.33</v>
@@ -4250,14 +4255,14 @@
       <c r="H93">
         <v>5</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <v>15592</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="2">
         <v>1546581460146</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -4265,7 +4270,7 @@
         <v>2021</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C94">
         <v>13.4</v>
@@ -4285,14 +4290,14 @@
       <c r="H94">
         <v>2</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <v>26034</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="2">
         <v>1571492710294</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -4300,7 +4305,7 @@
         <v>2021</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C95">
         <v>8.52</v>
@@ -4320,14 +4325,14 @@
       <c r="H95">
         <v>56</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <v>61149</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="2">
         <v>4629145410688</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
@@ -4335,7 +4340,7 @@
         <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C96">
         <v>10.3</v>
@@ -4355,14 +4360,14 @@
       <c r="H96">
         <v>17</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <v>58888</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="2">
         <v>2844761107896</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -4370,7 +4375,7 @@
         <v>2021</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C97">
         <v>8.34</v>
@@ -4390,14 +4395,14 @@
       <c r="H97">
         <v>368</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <v>600723</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="2">
         <v>113026647475943</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -4405,7 +4410,7 @@
         <v>2021</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C98">
         <v>5.81</v>
@@ -4425,10 +4430,10 @@
       <c r="H98">
         <v>26</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <v>54818</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="2">
         <v>3760604583113</v>
       </c>
       <c r="K98">
@@ -4440,7 +4445,7 @@
         <v>2021</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C99">
         <v>7.53</v>
@@ -4460,14 +4465,14 @@
       <c r="H99">
         <v>22</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <v>21496</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="2">
         <v>2063744204203</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -4475,7 +4480,7 @@
         <v>2021</v>
       </c>
       <c r="B100" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C100">
         <v>16.45</v>
@@ -4495,10 +4500,10 @@
       <c r="H100">
         <v>4</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <v>2643</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="2">
         <v>237347868693</v>
       </c>
       <c r="K100">
@@ -4530,14 +4535,14 @@
       <c r="H101">
         <v>6</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <v>30760</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="2">
         <v>1769168364176</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -4565,14 +4570,14 @@
       <c r="H102">
         <v>2</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <v>64005</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="2">
         <v>4864643149277</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -4600,14 +4605,14 @@
       <c r="H103">
         <v>4</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <v>72175</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="2">
         <v>4247392039276</v>
       </c>
       <c r="K103">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -4635,14 +4640,14 @@
       <c r="H104">
         <v>2</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <v>57928</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="2">
         <v>2338774560616</v>
       </c>
       <c r="K104">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -4670,14 +4675,14 @@
       <c r="H105">
         <v>2</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <v>80260</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="2">
         <v>3189177810938</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -4705,14 +4710,14 @@
       <c r="H106">
         <v>4</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <v>52873</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="2">
         <v>2697747857486</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -4740,10 +4745,10 @@
       <c r="H107">
         <v>43</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <v>173470</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="2">
         <v>8732993346041</v>
       </c>
       <c r="K107">
@@ -4775,10 +4780,10 @@
       <c r="H108">
         <v>29</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <v>208888</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="2">
         <v>16433401273464</v>
       </c>
       <c r="K108">
@@ -4810,14 +4815,14 @@
       <c r="H109">
         <v>4</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <v>209016</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="2">
         <v>6758291308908</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -4845,14 +4850,14 @@
       <c r="H110">
         <v>1</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <v>56348</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="2">
         <v>2463939205127</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -4880,14 +4885,14 @@
       <c r="H111">
         <v>7</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <v>110075</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="2">
         <v>4066884826896</v>
       </c>
       <c r="K111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -4915,10 +4920,10 @@
       <c r="H112">
         <v>44</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <v>705854</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="2">
         <v>38164940877016</v>
       </c>
       <c r="K112">
@@ -4950,14 +4955,14 @@
       <c r="H113">
         <v>14</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <v>208781</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="2">
         <v>5868770049502</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -4985,14 +4990,14 @@
       <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <v>19660</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="2">
         <v>847775827974</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -5020,14 +5025,14 @@
       <c r="H115">
         <v>1</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <v>17423</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="2">
         <v>705621777907</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -5055,14 +5060,14 @@
       <c r="H116">
         <v>0</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <v>9330</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="2">
         <v>375269886855</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -5090,14 +5095,14 @@
       <c r="H117">
         <v>0</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <v>15011</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="2">
         <v>468349542302</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -5125,14 +5130,14 @@
       <c r="H118">
         <v>10</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <v>125426</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="2">
         <v>3747479740462</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -5160,14 +5165,14 @@
       <c r="H119">
         <v>0</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <v>67637</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="2">
         <v>5805570549679</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -5195,14 +5200,14 @@
       <c r="H120">
         <v>0</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <v>23458</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="2">
         <v>810519882163</v>
       </c>
       <c r="K120">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -5230,14 +5235,14 @@
       <c r="H121">
         <v>0</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <v>28467</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="2">
         <v>1082124529711</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -5245,7 +5250,7 @@
         <v>2022</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C122">
         <v>8.09</v>
@@ -5265,14 +5270,14 @@
       <c r="H122">
         <v>4</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <v>39672</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="2">
         <v>946177275718</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
@@ -5280,7 +5285,7 @@
         <v>2022</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C123">
         <v>9.09</v>
@@ -5300,14 +5305,14 @@
       <c r="H123">
         <v>0</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <v>39131</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="2">
         <v>870998737651</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -5315,7 +5320,7 @@
         <v>2022</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C124">
         <v>23.4</v>
@@ -5335,10 +5340,10 @@
       <c r="H124">
         <v>0</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <v>7549</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="2">
         <v>366998857096</v>
       </c>
       <c r="K124">
@@ -5350,7 +5355,7 @@
         <v>2022</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C125">
         <v>24.75</v>
@@ -5370,10 +5375,10 @@
       <c r="H125">
         <v>0</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <v>7421</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="2">
         <v>240126595100</v>
       </c>
       <c r="K125">
@@ -5385,7 +5390,7 @@
         <v>2022</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C126">
         <v>11.47</v>
@@ -5405,14 +5410,14 @@
       <c r="H126">
         <v>5</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <v>37501</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="2">
         <v>1768038623138</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -5420,7 +5425,7 @@
         <v>2022</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C127">
         <v>12.45</v>
@@ -5440,14 +5445,14 @@
       <c r="H127">
         <v>2</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <v>48493</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="2">
         <v>1683050549543</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -5455,7 +5460,7 @@
         <v>2022</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C128">
         <v>7.88</v>
@@ -5475,14 +5480,14 @@
       <c r="H128">
         <v>55</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <v>132197</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="2">
         <v>5226504131544</v>
       </c>
       <c r="K128">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
@@ -5490,7 +5495,7 @@
         <v>2022</v>
       </c>
       <c r="B129" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C129">
         <v>9.59</v>
@@ -5510,10 +5515,10 @@
       <c r="H129">
         <v>20</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <v>103616</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="2">
         <v>2910212314846</v>
       </c>
       <c r="K129">
@@ -5525,7 +5530,7 @@
         <v>2022</v>
       </c>
       <c r="B130" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C130">
         <v>8.07</v>
@@ -5545,10 +5550,10 @@
       <c r="H130">
         <v>407</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <v>1517664</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="2">
         <v>117705640890086</v>
       </c>
       <c r="K130">
@@ -5560,7 +5565,7 @@
         <v>2022</v>
       </c>
       <c r="B131" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C131">
         <v>5.0999999999999996</v>
@@ -5580,14 +5585,14 @@
       <c r="H131">
         <v>27</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <v>119870</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="2">
         <v>4156123957677</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.35">
@@ -5595,7 +5600,7 @@
         <v>2022</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C132">
         <v>6.89</v>
@@ -5615,14 +5620,14 @@
       <c r="H132">
         <v>21</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <v>54179</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="2">
         <v>1907938311036</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -5630,7 +5635,7 @@
         <v>2022</v>
       </c>
       <c r="B133" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C133">
         <v>14.81</v>
@@ -5650,14 +5655,14 @@
       <c r="H133">
         <v>5</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <v>17113</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="2">
         <v>283922135479</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.35">
@@ -5685,14 +5690,14 @@
       <c r="H134">
         <v>6</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <v>30234</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="2">
         <v>1858871978056</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
@@ -5720,14 +5725,14 @@
       <c r="H135">
         <v>2</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <v>54900</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="2">
         <v>4964074061325</v>
       </c>
       <c r="K135">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
@@ -5755,14 +5760,14 @@
       <c r="H136">
         <v>4</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <v>71474</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="2">
         <v>4430921153726</v>
       </c>
       <c r="K136">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
@@ -5790,14 +5795,14 @@
       <c r="H137">
         <v>2</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <v>48746</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="2">
         <v>2416629276367</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
@@ -5825,14 +5830,14 @@
       <c r="H138">
         <v>2</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <v>80970</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="2">
         <v>3544321664182</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
@@ -5860,14 +5865,14 @@
       <c r="H139">
         <v>4</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <v>50119</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="2">
         <v>2841247609306</v>
       </c>
       <c r="K139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
@@ -5895,10 +5900,10 @@
       <c r="H140">
         <v>42</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <v>155994</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="2">
         <v>9438352741093</v>
       </c>
       <c r="K140">
@@ -5930,10 +5935,10 @@
       <c r="H141">
         <v>31</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="3">
         <v>170930</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="2">
         <v>11993258223099</v>
       </c>
       <c r="K141">
@@ -5965,14 +5970,14 @@
       <c r="H142">
         <v>5</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <v>172168</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="2">
         <v>6987188120779</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
@@ -6000,14 +6005,14 @@
       <c r="H143">
         <v>1</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <v>49775</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="2">
         <v>2658222074980</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
@@ -6035,14 +6040,14 @@
       <c r="H144">
         <v>7</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="3">
         <v>96512</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="2">
         <v>6312783423336</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
@@ -6070,14 +6075,14 @@
       <c r="H145">
         <v>49</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <v>551236</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="2">
         <v>33720407582022</v>
       </c>
       <c r="K145">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
@@ -6105,14 +6110,14 @@
       <c r="H146">
         <v>14</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <v>163472</v>
       </c>
-      <c r="J146">
+      <c r="J146" s="2">
         <v>6380418725309</v>
       </c>
       <c r="K146">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
@@ -6140,14 +6145,14 @@
       <c r="H147">
         <v>0</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <v>15222</v>
       </c>
-      <c r="J147">
+      <c r="J147" s="2">
         <v>921731995427</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
@@ -6175,14 +6180,14 @@
       <c r="H148">
         <v>1</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <v>15419</v>
       </c>
-      <c r="J148">
+      <c r="J148" s="2">
         <v>790286407539</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.35">
@@ -6210,14 +6215,14 @@
       <c r="H149">
         <v>0</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="3">
         <v>10310</v>
       </c>
-      <c r="J149">
+      <c r="J149" s="2">
         <v>398916360904</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.35">
@@ -6245,14 +6250,14 @@
       <c r="H150">
         <v>0</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="3">
         <v>11301</v>
       </c>
-      <c r="J150">
+      <c r="J150" s="2">
         <v>533365695559</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.35">
@@ -6280,14 +6285,14 @@
       <c r="H151">
         <v>10</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="3">
         <v>91090</v>
       </c>
-      <c r="J151">
+      <c r="J151" s="2">
         <v>3903765799232</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
@@ -6315,14 +6320,14 @@
       <c r="H152">
         <v>4</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="3">
         <v>51257</v>
       </c>
-      <c r="J152">
+      <c r="J152" s="2">
         <v>7301143917606</v>
       </c>
       <c r="K152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
@@ -6350,14 +6355,14 @@
       <c r="H153">
         <v>0</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="3">
         <v>16353</v>
       </c>
-      <c r="J153">
+      <c r="J153" s="2">
         <v>886781646120</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.35">
@@ -6385,14 +6390,14 @@
       <c r="H154">
         <v>0</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="3">
         <v>34725</v>
       </c>
-      <c r="J154">
+      <c r="J154" s="2">
         <v>1185192143189</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.35">
@@ -6400,7 +6405,7 @@
         <v>2023</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C155">
         <v>8.06</v>
@@ -6420,14 +6425,14 @@
       <c r="H155">
         <v>4</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="3">
         <v>26416</v>
       </c>
-      <c r="J155">
+      <c r="J155" s="2">
         <v>1084254987523</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.35">
@@ -6435,7 +6440,7 @@
         <v>2023</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C156">
         <v>9.08</v>
@@ -6455,14 +6460,14 @@
       <c r="H156">
         <v>3</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="3">
         <v>27986</v>
       </c>
-      <c r="J156">
+      <c r="J156" s="2">
         <v>1028225438827</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.35">
@@ -6470,7 +6475,7 @@
         <v>2023</v>
       </c>
       <c r="B157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C157">
         <v>21.79</v>
@@ -6490,10 +6495,10 @@
       <c r="H157">
         <v>0</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="3">
         <v>5083</v>
       </c>
-      <c r="J157">
+      <c r="J157" s="2">
         <v>379370030090</v>
       </c>
       <c r="K157">
@@ -6505,7 +6510,7 @@
         <v>2023</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C158">
         <v>22.81</v>
@@ -6525,10 +6530,10 @@
       <c r="H158">
         <v>0</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="3">
         <v>4178</v>
       </c>
-      <c r="J158">
+      <c r="J158" s="2">
         <v>251381755064</v>
       </c>
       <c r="K158">
@@ -6540,7 +6545,7 @@
         <v>2023</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C159">
         <v>11.42</v>
@@ -6560,14 +6565,14 @@
       <c r="H159">
         <v>5</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="3">
         <v>26836</v>
       </c>
-      <c r="J159">
+      <c r="J159" s="2">
         <v>1801764255504</v>
       </c>
       <c r="K159">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
@@ -6575,7 +6580,7 @@
         <v>2023</v>
       </c>
       <c r="B160" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C160">
         <v>12.21</v>
@@ -6595,14 +6600,14 @@
       <c r="H160">
         <v>4</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="3">
         <v>36870</v>
       </c>
-      <c r="J160">
+      <c r="J160" s="2">
         <v>1900461355008</v>
       </c>
       <c r="K160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
@@ -6610,7 +6615,7 @@
         <v>2023</v>
       </c>
       <c r="B161" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C161">
         <v>7.24</v>
@@ -6630,14 +6635,14 @@
       <c r="H161">
         <v>54</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="3">
         <v>91249</v>
       </c>
-      <c r="J161">
+      <c r="J161" s="2">
         <v>5850082385894</v>
       </c>
       <c r="K161">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
@@ -6645,7 +6650,7 @@
         <v>2023</v>
       </c>
       <c r="B162" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C162">
         <v>9.49</v>
@@ -6665,14 +6670,14 @@
       <c r="H162">
         <v>23</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="3">
         <v>50187</v>
       </c>
-      <c r="J162">
+      <c r="J162" s="2">
         <v>2750816037302</v>
       </c>
       <c r="K162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
@@ -6680,7 +6685,7 @@
         <v>2023</v>
       </c>
       <c r="B163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -6700,14 +6705,14 @@
       <c r="H163">
         <v>424</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="3">
         <v>1144002</v>
       </c>
-      <c r="J163">
+      <c r="J163" s="2">
         <v>121637233118315</v>
       </c>
       <c r="K163">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.35">
@@ -6715,7 +6720,7 @@
         <v>2023</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C164">
         <v>4.79</v>
@@ -6735,10 +6740,10 @@
       <c r="H164">
         <v>27</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="3">
         <v>88647</v>
       </c>
-      <c r="J164">
+      <c r="J164" s="2">
         <v>4566133769619</v>
       </c>
       <c r="K164">
@@ -6750,7 +6755,7 @@
         <v>2023</v>
       </c>
       <c r="B165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C165">
         <v>6.85</v>
@@ -6770,14 +6775,14 @@
       <c r="H165">
         <v>20</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="3">
         <v>33082</v>
       </c>
-      <c r="J165">
+      <c r="J165" s="2">
         <v>2352514639315</v>
       </c>
       <c r="K165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
@@ -6785,7 +6790,7 @@
         <v>2023</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C166">
         <v>14.78</v>
@@ -6805,18 +6810,17 @@
       <c r="H166">
         <v>3</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="3">
         <v>8182</v>
       </c>
-      <c r="J166">
+      <c r="J166" s="2">
         <v>365885056270</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hasil_cluster_sumut.xlsx
+++ b/hasil_cluster_sumut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Dokumen\Dashboard_SEFI\SEFI_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6E33B4-258E-43B6-98C6-E9C2629EF1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6C95E2-3DEB-4B05-A773-831B499CFA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BA7CAAE-7EFA-4C68-A577-E921A3535681}"/>
   </bookViews>
@@ -118,12 +118,6 @@
     <t>Padang Lawas</t>
   </si>
   <si>
-    <t>Labuhanbatu Selatan</t>
-  </si>
-  <si>
-    <t>Labuanbatu Utara</t>
-  </si>
-  <si>
     <t>Nias Utara</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
   </si>
   <si>
     <t>Sibolga</t>
-  </si>
-  <si>
-    <t>Tanjungbalai</t>
-  </si>
-  <si>
-    <t>Pematangsiantar</t>
   </si>
   <si>
     <t>Tebing Tinggi</t>
@@ -153,13 +141,25 @@
   <si>
     <t>Gunungsitoli</t>
   </si>
+  <si>
+    <t>Labuhan Batu Selatan</t>
+  </si>
+  <si>
+    <t>Labuhan Batu Utara</t>
+  </si>
+  <si>
+    <t>Tanjung Balai</t>
+  </si>
+  <si>
+    <t>Pematang Siantar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -641,7 +641,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1000,12 +1000,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D50302-56B7-4E46-8397-2958D8F81687}">
   <dimension ref="A1:K166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="J163" sqref="J163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -1785,7 +1786,7 @@
         <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>8.94</v>
@@ -1820,7 +1821,7 @@
         <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>9.57</v>
@@ -1855,7 +1856,7 @@
         <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
         <v>24.99</v>
@@ -1890,7 +1891,7 @@
         <v>2019</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>25.51</v>
@@ -1925,7 +1926,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>12.36</v>
@@ -1960,7 +1961,7 @@
         <v>2019</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>14.04</v>
@@ -1995,7 +1996,7 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>8.6300000000000008</v>
@@ -2030,7 +2031,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>9.94</v>
@@ -2065,7 +2066,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>8.08</v>
@@ -2100,7 +2101,7 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>5.66</v>
@@ -2135,7 +2136,7 @@
         <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>7.26</v>
@@ -2170,7 +2171,7 @@
         <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>16.23</v>
@@ -2940,7 +2941,7 @@
         <v>2020</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C56">
         <v>8.34</v>
@@ -2975,7 +2976,7 @@
         <v>2020</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C57">
         <v>9.5299999999999994</v>
@@ -3010,7 +3011,7 @@
         <v>2020</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>25.07</v>
@@ -3045,7 +3046,7 @@
         <v>2020</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C59">
         <v>25.69</v>
@@ -3080,7 +3081,7 @@
         <v>2020</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60">
         <v>11.95</v>
@@ -3115,7 +3116,7 @@
         <v>2020</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C61">
         <v>13.33</v>
@@ -3150,7 +3151,7 @@
         <v>2020</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C62">
         <v>8.27</v>
@@ -3185,7 +3186,7 @@
         <v>2020</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>9.85</v>
@@ -3220,7 +3221,7 @@
         <v>2020</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C64">
         <v>8.01</v>
@@ -3255,7 +3256,7 @@
         <v>2020</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>5.71</v>
@@ -3290,7 +3291,7 @@
         <v>2020</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C66">
         <v>7.4</v>
@@ -3325,7 +3326,7 @@
         <v>2020</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C67">
         <v>16.41</v>
@@ -4095,7 +4096,7 @@
         <v>2021</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C89">
         <v>8.5299999999999994</v>
@@ -4130,7 +4131,7 @@
         <v>2021</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C90">
         <v>10.02</v>
@@ -4165,7 +4166,7 @@
         <v>2021</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C91">
         <v>25.66</v>
@@ -4200,7 +4201,7 @@
         <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92">
         <v>26.42</v>
@@ -4235,7 +4236,7 @@
         <v>2021</v>
       </c>
       <c r="B93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C93">
         <v>12.33</v>
@@ -4270,7 +4271,7 @@
         <v>2021</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C94">
         <v>13.4</v>
@@ -4305,7 +4306,7 @@
         <v>2021</v>
       </c>
       <c r="B95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C95">
         <v>8.52</v>
@@ -4340,7 +4341,7 @@
         <v>2021</v>
       </c>
       <c r="B96" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>10.3</v>
@@ -4375,7 +4376,7 @@
         <v>2021</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C97">
         <v>8.34</v>
@@ -4410,7 +4411,7 @@
         <v>2021</v>
       </c>
       <c r="B98" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C98">
         <v>5.81</v>
@@ -4445,7 +4446,7 @@
         <v>2021</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C99">
         <v>7.53</v>
@@ -4480,7 +4481,7 @@
         <v>2021</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C100">
         <v>16.45</v>
@@ -5250,7 +5251,7 @@
         <v>2022</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C122">
         <v>8.09</v>
@@ -5285,7 +5286,7 @@
         <v>2022</v>
       </c>
       <c r="B123" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C123">
         <v>9.09</v>
@@ -5320,7 +5321,7 @@
         <v>2022</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C124">
         <v>23.4</v>
@@ -5355,7 +5356,7 @@
         <v>2022</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C125">
         <v>24.75</v>
@@ -5390,7 +5391,7 @@
         <v>2022</v>
       </c>
       <c r="B126" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C126">
         <v>11.47</v>
@@ -5425,7 +5426,7 @@
         <v>2022</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C127">
         <v>12.45</v>
@@ -5460,7 +5461,7 @@
         <v>2022</v>
       </c>
       <c r="B128" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C128">
         <v>7.88</v>
@@ -5495,7 +5496,7 @@
         <v>2022</v>
       </c>
       <c r="B129" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C129">
         <v>9.59</v>
@@ -5530,7 +5531,7 @@
         <v>2022</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C130">
         <v>8.07</v>
@@ -5565,7 +5566,7 @@
         <v>2022</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C131">
         <v>5.0999999999999996</v>
@@ -5600,7 +5601,7 @@
         <v>2022</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C132">
         <v>6.89</v>
@@ -5635,7 +5636,7 @@
         <v>2022</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C133">
         <v>14.81</v>
@@ -6405,7 +6406,7 @@
         <v>2023</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C155">
         <v>8.06</v>
@@ -6440,7 +6441,7 @@
         <v>2023</v>
       </c>
       <c r="B156" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C156">
         <v>9.08</v>
@@ -6475,7 +6476,7 @@
         <v>2023</v>
       </c>
       <c r="B157" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C157">
         <v>21.79</v>
@@ -6510,7 +6511,7 @@
         <v>2023</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C158">
         <v>22.81</v>
@@ -6545,7 +6546,7 @@
         <v>2023</v>
       </c>
       <c r="B159" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C159">
         <v>11.42</v>
@@ -6580,7 +6581,7 @@
         <v>2023</v>
       </c>
       <c r="B160" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C160">
         <v>12.21</v>
@@ -6615,7 +6616,7 @@
         <v>2023</v>
       </c>
       <c r="B161" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C161">
         <v>7.24</v>
@@ -6650,7 +6651,7 @@
         <v>2023</v>
       </c>
       <c r="B162" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C162">
         <v>9.49</v>
@@ -6685,7 +6686,7 @@
         <v>2023</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C163">
         <v>8</v>
@@ -6720,7 +6721,7 @@
         <v>2023</v>
       </c>
       <c r="B164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C164">
         <v>4.79</v>
@@ -6755,7 +6756,7 @@
         <v>2023</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C165">
         <v>6.85</v>
@@ -6790,7 +6791,7 @@
         <v>2023</v>
       </c>
       <c r="B166" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C166">
         <v>14.78</v>
